--- a/code/results/SP/D/signal_reconstruction/counters_means.xlsx
+++ b/code/results/SP/D/signal_reconstruction/counters_means.xlsx
@@ -468,58 +468,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40958182.26405868</v>
+        <v>41428379.49877751</v>
       </c>
       <c r="C2" t="n">
-        <v>24328.93643031785</v>
+        <v>23861.51100244499</v>
       </c>
       <c r="D2" t="n">
-        <v>121265672.0782396</v>
+        <v>117866170.5085575</v>
       </c>
       <c r="E2" t="n">
-        <v>262840269.3471883</v>
+        <v>259381800.3716381</v>
       </c>
       <c r="F2" t="n">
-        <v>569591.8410757947</v>
+        <v>554928.3789731051</v>
       </c>
       <c r="G2" t="n">
-        <v>4170317.755501222</v>
+        <v>4074333.699266504</v>
       </c>
       <c r="H2" t="n">
-        <v>2855.755501222494</v>
+        <v>2862.317848410758</v>
       </c>
       <c r="I2" t="n">
-        <v>7469878.760391198</v>
+        <v>7545791.811735941</v>
       </c>
       <c r="J2" t="n">
-        <v>3184384.413202934</v>
+        <v>3301344.643031785</v>
       </c>
       <c r="K2" t="n">
-        <v>6194849.188264059</v>
+        <v>6235834.457212714</v>
       </c>
       <c r="L2" t="n">
-        <v>104198.6283618582</v>
+        <v>103958.3496332518</v>
       </c>
       <c r="M2" t="n">
-        <v>24076.62836185819</v>
+        <v>20794.02200488998</v>
       </c>
       <c r="N2" t="n">
-        <v>29515004.64792176</v>
+        <v>29695260.79462103</v>
       </c>
       <c r="O2" t="n">
-        <v>31134225.21271394</v>
+        <v>30253533.52322738</v>
       </c>
       <c r="P2" t="n">
-        <v>0.687041564792176</v>
+        <v>0.7090464547677262</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.4303178484108</v>
+        <v>223.1882640586797</v>
       </c>
       <c r="R2" t="n">
-        <v>30041539.59657702</v>
+        <v>28736866.54523227</v>
       </c>
       <c r="S2" t="n">
-        <v>309918347.212714</v>
+        <v>305574902.7188264</v>
       </c>
     </row>
     <row r="3">
@@ -527,58 +527,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33825252.002457</v>
+        <v>35760287.01960784</v>
       </c>
       <c r="C3" t="n">
-        <v>23211.95577395577</v>
+        <v>23020.40931372549</v>
       </c>
       <c r="D3" t="n">
-        <v>117881198.9287469</v>
+        <v>117829503.1740196</v>
       </c>
       <c r="E3" t="n">
-        <v>211720608.1425062</v>
+        <v>223834547.747549</v>
       </c>
       <c r="F3" t="n">
-        <v>612461.5454545454</v>
+        <v>590883.4387254902</v>
       </c>
       <c r="G3" t="n">
-        <v>3582973.049140049</v>
+        <v>3721529.678921569</v>
       </c>
       <c r="H3" t="n">
-        <v>2857.7542997543</v>
+        <v>2840.637254901961</v>
       </c>
       <c r="I3" t="n">
-        <v>6181451.491400491</v>
+        <v>6539391.078431373</v>
       </c>
       <c r="J3" t="n">
-        <v>2493621.152334152</v>
+        <v>2694713.504901961</v>
       </c>
       <c r="K3" t="n">
-        <v>5038422.97051597</v>
+        <v>5353454.208333333</v>
       </c>
       <c r="L3" t="n">
-        <v>106638.2972972973</v>
+        <v>105245.7794117647</v>
       </c>
       <c r="M3" t="n">
-        <v>23939.13759213759</v>
+        <v>22333.92647058823</v>
       </c>
       <c r="N3" t="n">
-        <v>24252903.25798526</v>
+        <v>25647639.82107843</v>
       </c>
       <c r="O3" t="n">
-        <v>24810253.15233415</v>
+        <v>26186447.83333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6658476658476659</v>
+        <v>0.7965686274509803</v>
       </c>
       <c r="Q3" t="n">
-        <v>333.5257985257985</v>
+        <v>352.7573529411765</v>
       </c>
       <c r="R3" t="n">
-        <v>44813431.10810811</v>
+        <v>40869950.29166666</v>
       </c>
       <c r="S3" t="n">
-        <v>251889333.1891892</v>
+        <v>265352607.1642157</v>
       </c>
     </row>
     <row r="4">
@@ -586,58 +586,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3747569.950769231</v>
+        <v>10063626.41075795</v>
       </c>
       <c r="C4" t="n">
-        <v>8658.470769230769</v>
+        <v>9363.298288508557</v>
       </c>
       <c r="D4" t="n">
-        <v>30008640.70461538</v>
+        <v>117176824.3740831</v>
       </c>
       <c r="E4" t="n">
-        <v>41553237.52615385</v>
+        <v>251309557.9266504</v>
       </c>
       <c r="F4" t="n">
-        <v>305808.88</v>
+        <v>363757.7799511002</v>
       </c>
       <c r="G4" t="n">
-        <v>586521.5661538461</v>
+        <v>1442789.665036675</v>
       </c>
       <c r="H4" t="n">
-        <v>1997858.252307692</v>
+        <v>3037214.034229829</v>
       </c>
       <c r="I4" t="n">
-        <v>1011347.178461539</v>
+        <v>5309078.400977995</v>
       </c>
       <c r="J4" t="n">
-        <v>294152.8461538461</v>
+        <v>3611773.347188264</v>
       </c>
       <c r="K4" t="n">
-        <v>425801.4953846154</v>
+        <v>4477341.880195599</v>
       </c>
       <c r="L4" t="n">
-        <v>407236.2984615384</v>
+        <v>448863.3643031785</v>
       </c>
       <c r="M4" t="n">
-        <v>13570.79692307692</v>
+        <v>24537.26405867971</v>
       </c>
       <c r="N4" t="n">
-        <v>4385164.784615384</v>
+        <v>13057441.35452323</v>
       </c>
       <c r="O4" t="n">
-        <v>6404337.163076923</v>
+        <v>13762055.48899755</v>
       </c>
       <c r="P4" t="n">
-        <v>14.52307692307692</v>
+        <v>5.300733496332518</v>
       </c>
       <c r="Q4" t="n">
-        <v>789.5107692307693</v>
+        <v>1011.814180929095</v>
       </c>
       <c r="R4" t="n">
-        <v>12211250.84</v>
+        <v>36317836.09779951</v>
       </c>
       <c r="S4" t="n">
-        <v>58686169.92307692</v>
+        <v>319939462.3276284</v>
       </c>
     </row>
     <row r="5">
@@ -645,58 +645,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2503322.243323442</v>
+        <v>10054818.37745098</v>
       </c>
       <c r="C5" t="n">
-        <v>7147.344213649852</v>
+        <v>9413.166666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>20079390.47774481</v>
+        <v>118018214.6862745</v>
       </c>
       <c r="E5" t="n">
-        <v>21984183.15727003</v>
+        <v>254804668.2696078</v>
       </c>
       <c r="F5" t="n">
-        <v>234915.8753709199</v>
+        <v>368215.7279411764</v>
       </c>
       <c r="G5" t="n">
-        <v>436087.0207715133</v>
+        <v>1432462.154411765</v>
       </c>
       <c r="H5" t="n">
-        <v>1890207.142433234</v>
+        <v>3087832.568627451</v>
       </c>
       <c r="I5" t="n">
-        <v>669579.3264094956</v>
+        <v>5400129.845588235</v>
       </c>
       <c r="J5" t="n">
-        <v>130774.2759643917</v>
+        <v>3721490.81127451</v>
       </c>
       <c r="K5" t="n">
-        <v>215371.0682492582</v>
+        <v>4567054.850490196</v>
       </c>
       <c r="L5" t="n">
-        <v>322972.5489614243</v>
+        <v>451249.705882353</v>
       </c>
       <c r="M5" t="n">
-        <v>11176.86053412463</v>
+        <v>24036.51225490196</v>
       </c>
       <c r="N5" t="n">
-        <v>3143277.943620178</v>
+        <v>13099397.29411765</v>
       </c>
       <c r="O5" t="n">
-        <v>4195928.370919881</v>
+        <v>14212267.05392157</v>
       </c>
       <c r="P5" t="n">
-        <v>14.75964391691395</v>
+        <v>5.894607843137255</v>
       </c>
       <c r="Q5" t="n">
-        <v>731.5548961424332</v>
+        <v>954.4264705882352</v>
       </c>
       <c r="R5" t="n">
-        <v>9074447</v>
+        <v>36390504.8872549</v>
       </c>
       <c r="S5" t="n">
-        <v>33141565.81008902</v>
+        <v>319272167.3504902</v>
       </c>
     </row>
     <row r="6">
@@ -704,58 +704,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3880458.100244499</v>
+        <v>3881211.156479218</v>
       </c>
       <c r="C6" t="n">
-        <v>10170.86797066015</v>
+        <v>10462.34229828851</v>
       </c>
       <c r="D6" t="n">
-        <v>117865932.7652812</v>
+        <v>117869049.2836186</v>
       </c>
       <c r="E6" t="n">
-        <v>265971970.2567237</v>
+        <v>265515364.9706602</v>
       </c>
       <c r="F6" t="n">
-        <v>265242.9217603912</v>
+        <v>269779.4107579462</v>
       </c>
       <c r="G6" t="n">
-        <v>1386460.029339853</v>
+        <v>1411778.002444988</v>
       </c>
       <c r="H6" t="n">
-        <v>20776777.98288509</v>
+        <v>20721157.75061125</v>
       </c>
       <c r="I6" t="n">
-        <v>5328184.310513447</v>
+        <v>5316249.180929095</v>
       </c>
       <c r="J6" t="n">
-        <v>3923228.970660147</v>
+        <v>3870877.679706601</v>
       </c>
       <c r="K6" t="n">
-        <v>5198661.239608802</v>
+        <v>4977541.672371638</v>
       </c>
       <c r="L6" t="n">
-        <v>111444.8899755501</v>
+        <v>103215.1124694376</v>
       </c>
       <c r="M6" t="n">
-        <v>22863.23960880196</v>
+        <v>27203.22738386308</v>
       </c>
       <c r="N6" t="n">
-        <v>18939950.47677262</v>
+        <v>18902300.94865526</v>
       </c>
       <c r="O6" t="n">
-        <v>19773676.57457213</v>
+        <v>17753242.16136919</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9486552567237164</v>
+        <v>6.386308068459658</v>
       </c>
       <c r="Q6" t="n">
-        <v>192.0464547677262</v>
+        <v>190.5965770171149</v>
       </c>
       <c r="R6" t="n">
-        <v>38810096.76528117</v>
+        <v>38834766.73594132</v>
       </c>
       <c r="S6" t="n">
-        <v>302256359.5745721</v>
+        <v>300908314.5525672</v>
       </c>
     </row>
     <row r="7">
@@ -763,58 +763,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4205782.093366093</v>
+        <v>4118081.732186732</v>
       </c>
       <c r="C7" t="n">
-        <v>10737.8058968059</v>
+        <v>10612.18181818182</v>
       </c>
       <c r="D7" t="n">
-        <v>118053268.9361179</v>
+        <v>117978488.9434889</v>
       </c>
       <c r="E7" t="n">
-        <v>288555791.2063882</v>
+        <v>282602971.6388206</v>
       </c>
       <c r="F7" t="n">
-        <v>239001.8992628993</v>
+        <v>248378.9434889435</v>
       </c>
       <c r="G7" t="n">
-        <v>1274831.899262899</v>
+        <v>1290187.319410319</v>
       </c>
       <c r="H7" t="n">
-        <v>22561992.57002457</v>
+        <v>22088844.62653563</v>
       </c>
       <c r="I7" t="n">
-        <v>5759362.574938575</v>
+        <v>5649197.520884521</v>
       </c>
       <c r="J7" t="n">
-        <v>4446113.302211302</v>
+        <v>4329121.891891892</v>
       </c>
       <c r="K7" t="n">
-        <v>5480876.594594595</v>
+        <v>5367354.085995086</v>
       </c>
       <c r="L7" t="n">
-        <v>105965.4938574939</v>
+        <v>104442.9336609337</v>
       </c>
       <c r="M7" t="n">
-        <v>18591.02211302211</v>
+        <v>21560.90171990172</v>
       </c>
       <c r="N7" t="n">
-        <v>20521306.26044226</v>
+        <v>20098290.02457003</v>
       </c>
       <c r="O7" t="n">
-        <v>21042506.66093366</v>
+        <v>20616470.48157248</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3538083538083538</v>
+        <v>0.4201474201474201</v>
       </c>
       <c r="Q7" t="n">
-        <v>214.4619164619165</v>
+        <v>233.2432432432433</v>
       </c>
       <c r="R7" t="n">
-        <v>35586090.25798526</v>
+        <v>36420505.48402949</v>
       </c>
       <c r="S7" t="n">
-        <v>322518431.5577396</v>
+        <v>316784229.8673218</v>
       </c>
     </row>
     <row r="8">
@@ -822,58 +822,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3708749.021276596</v>
+        <v>11514167.14425428</v>
       </c>
       <c r="C8" t="n">
-        <v>6023.090425531915</v>
+        <v>10753.57946210269</v>
       </c>
       <c r="D8" t="n">
-        <v>33356430.53191489</v>
+        <v>117925154.3007335</v>
       </c>
       <c r="E8" t="n">
-        <v>56165229.57712766</v>
+        <v>218336332.7286063</v>
       </c>
       <c r="F8" t="n">
-        <v>138344.9494680851</v>
+        <v>421321.4767726162</v>
       </c>
       <c r="G8" t="n">
-        <v>462757.6037234042</v>
+        <v>1716451.547677262</v>
       </c>
       <c r="H8" t="n">
-        <v>1248679.571808511</v>
+        <v>4865733.533007335</v>
       </c>
       <c r="I8" t="n">
-        <v>1061124.236702128</v>
+        <v>4186831.229828851</v>
       </c>
       <c r="J8" t="n">
-        <v>484297.5265957447</v>
+        <v>1986488.325183374</v>
       </c>
       <c r="K8" t="n">
-        <v>751309.1303191489</v>
+        <v>3021657.946210269</v>
       </c>
       <c r="L8" t="n">
-        <v>135288.4308510638</v>
+        <v>380367.141809291</v>
       </c>
       <c r="M8" t="n">
-        <v>10627.32712765958</v>
+        <v>23697.52811735941</v>
       </c>
       <c r="N8" t="n">
-        <v>7525696.156914894</v>
+        <v>29840029.94621027</v>
       </c>
       <c r="O8" t="n">
-        <v>7923923.593085106</v>
+        <v>30367366.85085575</v>
       </c>
       <c r="P8" t="n">
-        <v>7.422872340425532</v>
+        <v>1.677261613691932</v>
       </c>
       <c r="Q8" t="n">
-        <v>82.82180851063829</v>
+        <v>155.1344743276284</v>
       </c>
       <c r="R8" t="n">
-        <v>13007561.22606383</v>
+        <v>44486891.76528117</v>
       </c>
       <c r="S8" t="n">
-        <v>76501843.46276596</v>
+        <v>282878954.6283619</v>
       </c>
     </row>
     <row r="9">
@@ -881,58 +881,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10281569.75490196</v>
+        <v>10289773.05147059</v>
       </c>
       <c r="C9" t="n">
-        <v>9591.485294117647</v>
+        <v>9486.948529411764</v>
       </c>
       <c r="D9" t="n">
-        <v>117854100.8602941</v>
+        <v>117721015.8651961</v>
       </c>
       <c r="E9" t="n">
-        <v>193551732.0882353</v>
+        <v>196323947.370098</v>
       </c>
       <c r="F9" t="n">
-        <v>425521.6642156863</v>
+        <v>431148.1274509804</v>
       </c>
       <c r="G9" t="n">
-        <v>1724983.453431373</v>
+        <v>1760343.698529412</v>
       </c>
       <c r="H9" t="n">
-        <v>4392188.203431373</v>
+        <v>4467908.355392157</v>
       </c>
       <c r="I9" t="n">
-        <v>3780227.875</v>
+        <v>3832339.200980392</v>
       </c>
       <c r="J9" t="n">
-        <v>1650793.12254902</v>
+        <v>1664557.446078431</v>
       </c>
       <c r="K9" t="n">
-        <v>2724271.661764706</v>
+        <v>2754903.669117647</v>
       </c>
       <c r="L9" t="n">
-        <v>373992.1911764706</v>
+        <v>381171.6151960784</v>
       </c>
       <c r="M9" t="n">
-        <v>25544.45098039216</v>
+        <v>24167.62990196078</v>
       </c>
       <c r="N9" t="n">
-        <v>26160039.76470588</v>
+        <v>26469648.31862745</v>
       </c>
       <c r="O9" t="n">
-        <v>24220692.6372549</v>
+        <v>20543645.40441176</v>
       </c>
       <c r="P9" t="n">
-        <v>2.443627450980392</v>
+        <v>6.649509803921569</v>
       </c>
       <c r="Q9" t="n">
-        <v>270.625</v>
+        <v>180.1740196078431</v>
       </c>
       <c r="R9" t="n">
-        <v>51758642.09068628</v>
+        <v>51593119.34068628</v>
       </c>
       <c r="S9" t="n">
-        <v>251216992.3308823</v>
+        <v>254416341.5</v>
       </c>
     </row>
     <row r="10">
@@ -940,58 +940,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8861931.73880597</v>
+        <v>9467103.634803921</v>
       </c>
       <c r="C10" t="n">
-        <v>9152.072139303482</v>
+        <v>9339.384803921568</v>
       </c>
       <c r="D10" t="n">
-        <v>117663299.5447761</v>
+        <v>117827365.5759804</v>
       </c>
       <c r="E10" t="n">
-        <v>168712810.5024876</v>
+        <v>181018234.1397059</v>
       </c>
       <c r="F10" t="n">
-        <v>578420.3930348259</v>
+        <v>597166.5735294118</v>
       </c>
       <c r="G10" t="n">
-        <v>1960004.440298507</v>
+        <v>1956886.245098039</v>
       </c>
       <c r="H10" t="n">
-        <v>3799522.487562189</v>
+        <v>4071129.629901961</v>
       </c>
       <c r="I10" t="n">
-        <v>7586703.256218906</v>
+        <v>7987218.30882353</v>
       </c>
       <c r="J10" t="n">
-        <v>4992402.099502487</v>
+        <v>5323617.25245098</v>
       </c>
       <c r="K10" t="n">
-        <v>6236329.52238806</v>
+        <v>6552619.87254902</v>
       </c>
       <c r="L10" t="n">
-        <v>494107.0646766169</v>
+        <v>496756.580882353</v>
       </c>
       <c r="M10" t="n">
-        <v>24054.11194029851</v>
+        <v>25339.91666666667</v>
       </c>
       <c r="N10" t="n">
-        <v>23398651.74378109</v>
+        <v>25107590.39460784</v>
       </c>
       <c r="O10" t="n">
-        <v>22462494.95771144</v>
+        <v>25625702.19117647</v>
       </c>
       <c r="P10" t="n">
-        <v>1.962686567164179</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="Q10" t="n">
-        <v>187.8233830845771</v>
+        <v>111.1789215686274</v>
       </c>
       <c r="R10" t="n">
-        <v>59078910.38557214</v>
+        <v>56253752.94607843</v>
       </c>
       <c r="S10" t="n">
-        <v>228945316.3233831</v>
+        <v>241894987</v>
       </c>
     </row>
     <row r="11">
@@ -999,58 +999,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10615163.27227723</v>
+        <v>10147760.46323529</v>
       </c>
       <c r="C11" t="n">
-        <v>10848.81683168317</v>
+        <v>10065.46323529412</v>
       </c>
       <c r="D11" t="n">
-        <v>120010083.6955446</v>
+        <v>117928195.4117647</v>
       </c>
       <c r="E11" t="n">
-        <v>195135588.7351485</v>
+        <v>192797357.8823529</v>
       </c>
       <c r="F11" t="n">
-        <v>566165.6782178218</v>
+        <v>584533.4975490196</v>
       </c>
       <c r="G11" t="n">
-        <v>1971162.967821782</v>
+        <v>1994965.387254902</v>
       </c>
       <c r="H11" t="n">
-        <v>4401871.027227723</v>
+        <v>4354030.715686275</v>
       </c>
       <c r="I11" t="n">
-        <v>8506464.801980197</v>
+        <v>8529219.590686275</v>
       </c>
       <c r="J11" t="n">
-        <v>5773214.381188119</v>
+        <v>5768011.671568627</v>
       </c>
       <c r="K11" t="n">
-        <v>7013541.923267326</v>
+        <v>7014694.296568627</v>
       </c>
       <c r="L11" t="n">
-        <v>502291.1732673267</v>
+        <v>513698.9828431372</v>
       </c>
       <c r="M11" t="n">
-        <v>25377.92821782178</v>
+        <v>24309.35784313726</v>
       </c>
       <c r="N11" t="n">
-        <v>27069527.81188119</v>
+        <v>26643262.89215686</v>
       </c>
       <c r="O11" t="n">
-        <v>26678314.25</v>
+        <v>26761787.50980392</v>
       </c>
       <c r="P11" t="n">
-        <v>2.262376237623762</v>
+        <v>0.9975490196078431</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.5247524752475</v>
+        <v>178.546568627451</v>
       </c>
       <c r="R11" t="n">
-        <v>51930086.48019802</v>
+        <v>52806438.55392157</v>
       </c>
       <c r="S11" t="n">
-        <v>263275459.5841584</v>
+        <v>256799366.7009804</v>
       </c>
     </row>
     <row r="12">
@@ -1058,58 +1058,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9420399.755501222</v>
+        <v>9389881.002444988</v>
       </c>
       <c r="C12" t="n">
-        <v>10959.86552567237</v>
+        <v>10716.77261613692</v>
       </c>
       <c r="D12" t="n">
-        <v>117847103.398533</v>
+        <v>117863851.2982885</v>
       </c>
       <c r="E12" t="n">
-        <v>194071350.4474328</v>
+        <v>193846877.1271394</v>
       </c>
       <c r="F12" t="n">
-        <v>530278.315403423</v>
+        <v>526469.3838630806</v>
       </c>
       <c r="G12" t="n">
-        <v>1831915.66992665</v>
+        <v>1821357.657701711</v>
       </c>
       <c r="H12" t="n">
-        <v>5314726.970660146</v>
+        <v>5055074.613691932</v>
       </c>
       <c r="I12" t="n">
-        <v>7993252.606356968</v>
+        <v>7993739.594132029</v>
       </c>
       <c r="J12" t="n">
-        <v>5449930.224938875</v>
+        <v>5453925.322738387</v>
       </c>
       <c r="K12" t="n">
-        <v>6589410.24205379</v>
+        <v>6604661.836185819</v>
       </c>
       <c r="L12" t="n">
-        <v>477272.6136919315</v>
+        <v>478557.7310513447</v>
       </c>
       <c r="M12" t="n">
-        <v>23798.01711491443</v>
+        <v>22362.8630806846</v>
       </c>
       <c r="N12" t="n">
-        <v>24071313.82640587</v>
+        <v>24112006.14669926</v>
       </c>
       <c r="O12" t="n">
-        <v>22770603.63325183</v>
+        <v>17697318.67481663</v>
       </c>
       <c r="P12" t="n">
-        <v>2.975550122249389</v>
+        <v>1.041564792176039</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.9951100244499</v>
+        <v>198.0562347188264</v>
       </c>
       <c r="R12" t="n">
-        <v>51643241.76772616</v>
+        <v>51852283.92420538</v>
       </c>
       <c r="S12" t="n">
-        <v>254472405.9706602</v>
+        <v>254355708.396088</v>
       </c>
     </row>
     <row r="13">
@@ -1117,58 +1117,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8552075.110294119</v>
+        <v>8623516.93398533</v>
       </c>
       <c r="C13" t="n">
-        <v>10106.5931372549</v>
+        <v>10345.12958435208</v>
       </c>
       <c r="D13" t="n">
-        <v>117850397.4215686</v>
+        <v>117891523.5085575</v>
       </c>
       <c r="E13" t="n">
-        <v>169244324.2622549</v>
+        <v>174436260.9462103</v>
       </c>
       <c r="F13" t="n">
-        <v>540879.6715686275</v>
+        <v>547955.3985330074</v>
       </c>
       <c r="G13" t="n">
-        <v>1776531.985294118</v>
+        <v>1778320.762836186</v>
       </c>
       <c r="H13" t="n">
-        <v>4230711.698529412</v>
+        <v>4603757.061124695</v>
       </c>
       <c r="I13" t="n">
-        <v>7120975.757352941</v>
+        <v>7247334.007334963</v>
       </c>
       <c r="J13" t="n">
-        <v>4707422.639705882</v>
+        <v>4852199.569682152</v>
       </c>
       <c r="K13" t="n">
-        <v>5818281.62745098</v>
+        <v>6115015.13202934</v>
       </c>
       <c r="L13" t="n">
-        <v>469722.9093137255</v>
+        <v>470287.97799511</v>
       </c>
       <c r="M13" t="n">
-        <v>24237.04411764706</v>
+        <v>30244.8435207824</v>
       </c>
       <c r="N13" t="n">
-        <v>21491874.95098039</v>
+        <v>21784360.56234719</v>
       </c>
       <c r="O13" t="n">
-        <v>22012433.06127451</v>
+        <v>20732206.99755501</v>
       </c>
       <c r="P13" t="n">
-        <v>1.433823529411765</v>
+        <v>11.11002444987775</v>
       </c>
       <c r="Q13" t="n">
-        <v>161.0808823529412</v>
+        <v>140.3374083129584</v>
       </c>
       <c r="R13" t="n">
-        <v>58218609.22794118</v>
+        <v>56394313.44987775</v>
       </c>
       <c r="S13" t="n">
-        <v>226545931.7818627</v>
+        <v>231572263.3667482</v>
       </c>
     </row>
     <row r="14">
@@ -1176,58 +1176,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3435886.785714286</v>
+        <v>9628597.406143345</v>
       </c>
       <c r="C14" t="n">
-        <v>8688.827922077922</v>
+        <v>9211.795221843004</v>
       </c>
       <c r="D14" t="n">
-        <v>24837277.74025974</v>
+        <v>117986050.6382253</v>
       </c>
       <c r="E14" t="n">
-        <v>27570662.88636364</v>
+        <v>246485979.7133106</v>
       </c>
       <c r="F14" t="n">
-        <v>304130.3116883117</v>
+        <v>452574.023890785</v>
       </c>
       <c r="G14" t="n">
-        <v>580661.7337662338</v>
+        <v>1521145.375426621</v>
       </c>
       <c r="H14" t="n">
-        <v>2050616.470779221</v>
+        <v>2169626.627986348</v>
       </c>
       <c r="I14" t="n">
-        <v>886740.1038961039</v>
+        <v>5711452.832764505</v>
       </c>
       <c r="J14" t="n">
-        <v>173327.4285714286</v>
+        <v>4051087.552901024</v>
       </c>
       <c r="K14" t="n">
-        <v>288112.5941558442</v>
+        <v>4972172.443686007</v>
       </c>
       <c r="L14" t="n">
-        <v>417646.0454545455</v>
+        <v>481401.5972696246</v>
       </c>
       <c r="M14" t="n">
-        <v>13575.4512987013</v>
+        <v>23338.41296928328</v>
       </c>
       <c r="N14" t="n">
-        <v>3848880.503246753</v>
+        <v>12375984.11945393</v>
       </c>
       <c r="O14" t="n">
-        <v>4526449.831168831</v>
+        <v>13934206.06143345</v>
       </c>
       <c r="P14" t="n">
-        <v>25.84090909090909</v>
+        <v>3.696245733788396</v>
       </c>
       <c r="Q14" t="n">
-        <v>713.3636363636364</v>
+        <v>1319.648464163823</v>
       </c>
       <c r="R14" t="n">
-        <v>11113011.82142857</v>
+        <v>37550500.37883959</v>
       </c>
       <c r="S14" t="n">
-        <v>42776975.0551948</v>
+        <v>311823267.2013652</v>
       </c>
     </row>
     <row r="15">
@@ -1235,58 +1235,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3921893.157024793</v>
+        <v>9652334.361774744</v>
       </c>
       <c r="C15" t="n">
-        <v>8079.460055096419</v>
+        <v>9345.098976109215</v>
       </c>
       <c r="D15" t="n">
-        <v>35229238.90633609</v>
+        <v>118053277.7372014</v>
       </c>
       <c r="E15" t="n">
-        <v>56932791.90633609</v>
+        <v>247145651.6791809</v>
       </c>
       <c r="F15" t="n">
-        <v>287472.7851239669</v>
+        <v>453515.6450511945</v>
       </c>
       <c r="G15" t="n">
-        <v>574476.9449035813</v>
+        <v>1552590.597269624</v>
       </c>
       <c r="H15" t="n">
-        <v>1687811.752066116</v>
+        <v>2027310.341296928</v>
       </c>
       <c r="I15" t="n">
-        <v>1124340.545454545</v>
+        <v>5770927.627986348</v>
       </c>
       <c r="J15" t="n">
-        <v>434061.2231404959</v>
+        <v>4049367.566552901</v>
       </c>
       <c r="K15" t="n">
-        <v>589999.5399449036</v>
+        <v>4965996.928327645</v>
       </c>
       <c r="L15" t="n">
-        <v>375546.2947658402</v>
+        <v>480253.5153583618</v>
       </c>
       <c r="M15" t="n">
-        <v>13159.65289256198</v>
+        <v>23549.43003412969</v>
       </c>
       <c r="N15" t="n">
-        <v>4698491.774104684</v>
+        <v>12238082.45733788</v>
       </c>
       <c r="O15" t="n">
-        <v>5956220.493112948</v>
+        <v>13788978.04778157</v>
       </c>
       <c r="P15" t="n">
-        <v>12.27548209366391</v>
+        <v>5.453924914675768</v>
       </c>
       <c r="Q15" t="n">
-        <v>649.4738292011019</v>
+        <v>1250.80204778157</v>
       </c>
       <c r="R15" t="n">
-        <v>13599386.43526171</v>
+        <v>37530246.37201365</v>
       </c>
       <c r="S15" t="n">
-        <v>77780898.71900827</v>
+        <v>311472096.4027303</v>
       </c>
     </row>
     <row r="16">
@@ -1294,58 +1294,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10338922.3504902</v>
+        <v>10617936.9877451</v>
       </c>
       <c r="C16" t="n">
-        <v>9347.720588235294</v>
+        <v>9208.068627450981</v>
       </c>
       <c r="D16" t="n">
-        <v>117833084.129902</v>
+        <v>117748917.8406863</v>
       </c>
       <c r="E16" t="n">
-        <v>192970754.4436274</v>
+        <v>197610933.127451</v>
       </c>
       <c r="F16" t="n">
-        <v>423223.4264705883</v>
+        <v>418762.3848039216</v>
       </c>
       <c r="G16" t="n">
-        <v>1747406.031862745</v>
+        <v>1739560.799019608</v>
       </c>
       <c r="H16" t="n">
-        <v>4566604.475490196</v>
+        <v>4742257.475490196</v>
       </c>
       <c r="I16" t="n">
-        <v>3786112.178921569</v>
+        <v>3892593.370098039</v>
       </c>
       <c r="J16" t="n">
-        <v>1617002.382352941</v>
+        <v>1709328.424019608</v>
       </c>
       <c r="K16" t="n">
-        <v>2710393.129901961</v>
+        <v>2790787.156862745</v>
       </c>
       <c r="L16" t="n">
-        <v>403650.294117647</v>
+        <v>405988.9044117647</v>
       </c>
       <c r="M16" t="n">
-        <v>25146.11519607843</v>
+        <v>23408.18382352941</v>
       </c>
       <c r="N16" t="n">
-        <v>25994174.80147059</v>
+        <v>26497930.73039216</v>
       </c>
       <c r="O16" t="n">
-        <v>26549690.75735294</v>
+        <v>27044522.81127451</v>
       </c>
       <c r="P16" t="n">
-        <v>5.227941176470588</v>
+        <v>1.450980392156863</v>
       </c>
       <c r="Q16" t="n">
-        <v>249.2475490196078</v>
+        <v>199.7058823529412</v>
       </c>
       <c r="R16" t="n">
-        <v>51700304.74019608</v>
+        <v>50663161.14705882</v>
       </c>
       <c r="S16" t="n">
-        <v>250480849.8014706</v>
+        <v>255368657.9313726</v>
       </c>
     </row>
     <row r="17">
@@ -1353,58 +1353,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10667432.95354523</v>
+        <v>10690137.34718826</v>
       </c>
       <c r="C17" t="n">
-        <v>9822.977995110024</v>
+        <v>9935.466992665037</v>
       </c>
       <c r="D17" t="n">
-        <v>118496534.3227384</v>
+        <v>117811315.6577017</v>
       </c>
       <c r="E17" t="n">
-        <v>196293322.599022</v>
+        <v>195805556.7359413</v>
       </c>
       <c r="F17" t="n">
-        <v>577866.2127139365</v>
+        <v>579761.7921760391</v>
       </c>
       <c r="G17" t="n">
-        <v>2008980.237163814</v>
+        <v>2023821.909535452</v>
       </c>
       <c r="H17" t="n">
-        <v>4702052.354523228</v>
+        <v>4705506.107579462</v>
       </c>
       <c r="I17" t="n">
-        <v>8997355.980440097</v>
+        <v>9027911.369193153</v>
       </c>
       <c r="J17" t="n">
-        <v>6144801.102689487</v>
+        <v>6156338.376528118</v>
       </c>
       <c r="K17" t="n">
-        <v>7402359.264058679</v>
+        <v>7427674.149144255</v>
       </c>
       <c r="L17" t="n">
-        <v>537817.7750611247</v>
+        <v>540441.9682151589</v>
       </c>
       <c r="M17" t="n">
-        <v>23507.46699266503</v>
+        <v>23603.42542787286</v>
       </c>
       <c r="N17" t="n">
-        <v>26670257.78973105</v>
+        <v>26803756.77506112</v>
       </c>
       <c r="O17" t="n">
-        <v>27265880.04645477</v>
+        <v>27336218.5403423</v>
       </c>
       <c r="P17" t="n">
-        <v>2.422982885085574</v>
+        <v>2.344743276283618</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.1980440097799</v>
+        <v>144.4621026894866</v>
       </c>
       <c r="R17" t="n">
-        <v>50895215.41809291</v>
+        <v>51384662.1198044</v>
       </c>
       <c r="S17" t="n">
-        <v>262534998.8239609</v>
+        <v>260244387.2762836</v>
       </c>
     </row>
     <row r="18">
@@ -1412,58 +1412,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8870698.481572481</v>
+        <v>9027768.946078431</v>
       </c>
       <c r="C18" t="n">
-        <v>8673.334152334151</v>
+        <v>8748.492647058823</v>
       </c>
       <c r="D18" t="n">
-        <v>117826665.0909091</v>
+        <v>117820306.8578431</v>
       </c>
       <c r="E18" t="n">
-        <v>165697640.4643735</v>
+        <v>168987322.5147059</v>
       </c>
       <c r="F18" t="n">
-        <v>554625.0614250614</v>
+        <v>551796.4950980392</v>
       </c>
       <c r="G18" t="n">
-        <v>1784990.137592138</v>
+        <v>1793497.948529412</v>
       </c>
       <c r="H18" t="n">
-        <v>3735020.85012285</v>
+        <v>3769056.605392157</v>
       </c>
       <c r="I18" t="n">
-        <v>7214498.218673219</v>
+        <v>7336824.203431373</v>
       </c>
       <c r="J18" t="n">
-        <v>4768178.277641278</v>
+        <v>4859997.598039215</v>
       </c>
       <c r="K18" t="n">
-        <v>5869603.098280098</v>
+        <v>5965220.024509804</v>
       </c>
       <c r="L18" t="n">
-        <v>487407.7199017199</v>
+        <v>477186.7107843137</v>
       </c>
       <c r="M18" t="n">
-        <v>25977.17936117936</v>
+        <v>25452.77450980392</v>
       </c>
       <c r="N18" t="n">
-        <v>21590686.93857494</v>
+        <v>22025375.72058824</v>
       </c>
       <c r="O18" t="n">
-        <v>22099380.12776413</v>
+        <v>22495868.40931373</v>
       </c>
       <c r="P18" t="n">
-        <v>2.83046683046683</v>
+        <v>2.627450980392157</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.6928746928747</v>
+        <v>355.4975490196078</v>
       </c>
       <c r="R18" t="n">
-        <v>58446744.05405405</v>
+        <v>57945895.63480392</v>
       </c>
       <c r="S18" t="n">
-        <v>219136549.1597052</v>
+        <v>221963403.3627451</v>
       </c>
     </row>
     <row r="19">
@@ -1471,58 +1471,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6021829.55033557</v>
+        <v>10194523.00980392</v>
       </c>
       <c r="C19" t="n">
-        <v>8508.848993288591</v>
+        <v>11782.26715686274</v>
       </c>
       <c r="D19" t="n">
-        <v>45752188.7114094</v>
+        <v>118014195.3946078</v>
       </c>
       <c r="E19" t="n">
-        <v>88619247.37919463</v>
+        <v>220927036.3357843</v>
       </c>
       <c r="F19" t="n">
-        <v>140297.9865771812</v>
+        <v>234507.0171568627</v>
       </c>
       <c r="G19" t="n">
-        <v>230069.9161073825</v>
+        <v>333201.8382352941</v>
       </c>
       <c r="H19" t="n">
-        <v>444233.7315436241</v>
+        <v>1202395.700980392</v>
       </c>
       <c r="I19" t="n">
-        <v>861804.2583892618</v>
+        <v>2581700.549019608</v>
       </c>
       <c r="J19" t="n">
-        <v>478358.9563758389</v>
+        <v>1927601.473039216</v>
       </c>
       <c r="K19" t="n">
-        <v>504485.466442953</v>
+        <v>2086625.473039216</v>
       </c>
       <c r="L19" t="n">
-        <v>185342.4899328859</v>
+        <v>143300.0465686274</v>
       </c>
       <c r="M19" t="n">
-        <v>10031.01006711409</v>
+        <v>22809.20343137255</v>
       </c>
       <c r="N19" t="n">
-        <v>6001328.573825504</v>
+        <v>12413067.53431373</v>
       </c>
       <c r="O19" t="n">
-        <v>4658059.010067114</v>
+        <v>12917034.54411765</v>
       </c>
       <c r="P19" t="n">
-        <v>7.580536912751678</v>
+        <v>3.311274509803921</v>
       </c>
       <c r="Q19" t="n">
-        <v>183.6107382550336</v>
+        <v>145.3578431372549</v>
       </c>
       <c r="R19" t="n">
-        <v>14814684.95973154</v>
+        <v>43774342.19362745</v>
       </c>
       <c r="S19" t="n">
-        <v>118946441.2281879</v>
+        <v>284328920.9068627</v>
       </c>
     </row>
     <row r="20">
@@ -1530,58 +1530,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7876592.669926651</v>
+        <v>8117977.205378973</v>
       </c>
       <c r="C20" t="n">
-        <v>11155.57457212714</v>
+        <v>10690.36430317848</v>
       </c>
       <c r="D20" t="n">
-        <v>117670854.0391198</v>
+        <v>117804670.9339853</v>
       </c>
       <c r="E20" t="n">
-        <v>204560551.5550122</v>
+        <v>210817742.3227384</v>
       </c>
       <c r="F20" t="n">
-        <v>112786.0733496333</v>
+        <v>114806.4914425428</v>
       </c>
       <c r="G20" t="n">
-        <v>218000.8508557457</v>
+        <v>220315.9168704156</v>
       </c>
       <c r="H20" t="n">
-        <v>2859.036674816626</v>
+        <v>2864.491442542787</v>
       </c>
       <c r="I20" t="n">
-        <v>329682.8166259169</v>
+        <v>330108.8337408313</v>
       </c>
       <c r="J20" t="n">
-        <v>11346.53056234719</v>
+        <v>10822.804400978</v>
       </c>
       <c r="K20" t="n">
-        <v>22000.46210268949</v>
+        <v>20628.93887530562</v>
       </c>
       <c r="L20" t="n">
-        <v>188944.2249388753</v>
+        <v>194277.0342298289</v>
       </c>
       <c r="M20" t="n">
-        <v>12678.71393643032</v>
+        <v>11521.73594132029</v>
       </c>
       <c r="N20" t="n">
-        <v>12284843.65281174</v>
+        <v>12500403.45721271</v>
       </c>
       <c r="O20" t="n">
-        <v>16179403.35452323</v>
+        <v>13023970.70415648</v>
       </c>
       <c r="P20" t="n">
-        <v>3.317848410757946</v>
+        <v>2.178484107579462</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.757946210269</v>
+        <v>248.4914425427873</v>
       </c>
       <c r="R20" t="n">
-        <v>44400511.67726161</v>
+        <v>43872587.00488997</v>
       </c>
       <c r="S20" t="n">
-        <v>291324469.198044</v>
+        <v>293924002.9755501</v>
       </c>
     </row>
     <row r="21">
@@ -1589,58 +1589,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12227135.42307692</v>
+        <v>11828057.77777778</v>
       </c>
       <c r="C21" t="n">
-        <v>9088.782051282051</v>
+        <v>12435.34567901235</v>
       </c>
       <c r="D21" t="n">
-        <v>117868744.1153846</v>
+        <v>117792997.382716</v>
       </c>
       <c r="E21" t="n">
-        <v>205519565.8846154</v>
+        <v>199245330.8641975</v>
       </c>
       <c r="F21" t="n">
-        <v>9695.717948717949</v>
+        <v>12468.95061728395</v>
       </c>
       <c r="G21" t="n">
-        <v>95079.03846153847</v>
+        <v>99313.90123456791</v>
       </c>
       <c r="H21" t="n">
-        <v>2882.858974358974</v>
+        <v>2883.777777777778</v>
       </c>
       <c r="I21" t="n">
-        <v>562169.3846153846</v>
+        <v>544507.1111111111</v>
       </c>
       <c r="J21" t="n">
-        <v>487320.0384615384</v>
+        <v>468920.4938271605</v>
       </c>
       <c r="K21" t="n">
-        <v>557279.0769230769</v>
+        <v>539197.7777777778</v>
       </c>
       <c r="L21" t="n">
-        <v>2325.538461538461</v>
+        <v>1849.246913580247</v>
       </c>
       <c r="M21" t="n">
-        <v>21714.96153846154</v>
+        <v>24207.86419753086</v>
       </c>
       <c r="N21" t="n">
-        <v>13096677.3974359</v>
+        <v>12641328.0617284</v>
       </c>
       <c r="O21" t="n">
-        <v>13241380.23076923</v>
+        <v>12802589.54320988</v>
       </c>
       <c r="P21" t="n">
-        <v>5.423076923076923</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.17948717948718</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R21" t="n">
-        <v>44540243.83333334</v>
+        <v>45271627.55555555</v>
       </c>
       <c r="S21" t="n">
-        <v>285973338.8333333</v>
+        <v>277447894.0246913</v>
       </c>
     </row>
     <row r="22">
@@ -1648,58 +1648,58 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>46208233.1</v>
+        <v>44920886.2</v>
       </c>
       <c r="C22" t="n">
-        <v>31088.2</v>
+        <v>33553.4</v>
       </c>
       <c r="D22" t="n">
-        <v>115253397.2</v>
+        <v>115685263.3</v>
       </c>
       <c r="E22" t="n">
-        <v>312941152</v>
+        <v>300931841.5</v>
       </c>
       <c r="F22" t="n">
-        <v>50197.3</v>
+        <v>72831.3</v>
       </c>
       <c r="G22" t="n">
-        <v>444987.4</v>
+        <v>499168.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2809.1</v>
+        <v>2917.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4068503.1</v>
+        <v>3926247.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3651835.1</v>
+        <v>3454905.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3905507.2</v>
+        <v>3743878.2</v>
       </c>
       <c r="L22" t="n">
-        <v>8873.4</v>
+        <v>9508.9</v>
       </c>
       <c r="M22" t="n">
-        <v>30996.6</v>
+        <v>40535.3</v>
       </c>
       <c r="N22" t="n">
-        <v>33006321</v>
+        <v>31742278.6</v>
       </c>
       <c r="O22" t="n">
-        <v>34353415.5</v>
+        <v>33049338.2</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>118.4</v>
       </c>
       <c r="R22" t="n">
-        <v>12089911.5</v>
+        <v>13915842.5</v>
       </c>
       <c r="S22" t="n">
-        <v>366522890.1</v>
+        <v>356454898.9</v>
       </c>
     </row>
   </sheetData>
